--- a/data/15-gene_networks_analysis/Regulatory-Relationships_Six-Networks_NEW_db5.xlsx
+++ b/data/15-gene_networks_analysis/Regulatory-Relationships_Six-Networks_NEW_db5.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Relationship</t>
   </si>
@@ -527,6 +527,27 @@
   </si>
   <si>
     <t>ZAP1-&gt;GLN3</t>
+  </si>
+  <si>
+    <t>Shared w/ db5 (+)</t>
+  </si>
+  <si>
+    <t>Shared w/ db5 (-)</t>
+  </si>
+  <si>
+    <t>Only better</t>
+  </si>
+  <si>
+    <t>Only worse</t>
+  </si>
+  <si>
+    <t>Shared w/ + &amp; -</t>
+  </si>
+  <si>
+    <t>(same reg)</t>
+  </si>
+  <si>
+    <t>(diff reg)</t>
   </si>
 </sst>
 </file>
@@ -566,7 +587,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +615,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,11 +747,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,28 +1260,28 @@
       <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>155</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1213,15 +1294,15 @@
         <v>31</v>
       </c>
       <c r="N1" s="20"/>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1311,7 +1392,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="23"/>
@@ -1372,7 +1453,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="23"/>
@@ -1551,7 +1632,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="36" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="23"/>
@@ -1647,7 +1728,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="36" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="23"/>
@@ -1710,7 +1791,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="23"/>
@@ -2123,7 +2204,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="38" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="23"/>
@@ -2208,7 +2289,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="23"/>
@@ -2234,6 +2315,12 @@
         <f t="shared" si="2"/>
         <v>1.3631805287982377</v>
       </c>
+      <c r="O21" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P21" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -2246,7 +2333,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="26">
+      <c r="I22" s="25">
         <v>8.2967787116922001E-2</v>
       </c>
       <c r="J22" s="1">
@@ -2261,10 +2348,16 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
+      <c r="O22" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="P22" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="23"/>
@@ -2289,6 +2382,12 @@
       <c r="L23" s="1">
         <f t="shared" si="2"/>
         <v>1.020894750435229</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -2317,6 +2416,12 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
+      <c r="O24" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -2329,7 +2434,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="26">
+      <c r="I25" s="25">
         <v>1.16705108380106E-3</v>
       </c>
       <c r="J25" s="1">
@@ -2344,10 +2449,19 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
+      <c r="O25" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="23"/>
@@ -2358,7 +2472,7 @@
         <v>-3.6580469132249001E-2</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>-6.1447827435054697E-2</v>
       </c>
       <c r="J26" s="1">
@@ -2372,6 +2486,12 @@
       <c r="L26" s="1">
         <f t="shared" si="2"/>
         <v>1.7583877686109532E-2</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -2457,7 +2577,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="23">
@@ -2524,7 +2644,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
-      <c r="I32" s="26">
+      <c r="I32" s="25">
         <v>-0.1011371929979</v>
       </c>
       <c r="J32" s="1">
@@ -2569,7 +2689,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="38" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="23"/>
@@ -2654,7 +2774,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="23"/>
@@ -2818,7 +2938,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="27" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="23"/>
@@ -2847,7 +2967,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="23"/>
@@ -2862,7 +2982,7 @@
       <c r="H44" s="23">
         <v>-0.50848007241063098</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="25">
         <v>1.2380516920454899E-2</v>
       </c>
       <c r="J44" s="1">
@@ -2961,7 +3081,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="36" t="s">
         <v>88</v>
       </c>
       <c r="C48" s="23"/>
@@ -2990,7 +3110,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C49" s="23"/>
@@ -3100,7 +3220,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="27" t="s">
         <v>93</v>
       </c>
       <c r="C53" s="23"/>
@@ -3210,7 +3330,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="27" t="s">
         <v>97</v>
       </c>
       <c r="C57" s="23"/>
@@ -3536,7 +3656,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="27" t="s">
         <v>105</v>
       </c>
       <c r="C69" s="23"/>
@@ -3592,7 +3712,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C71" s="23">
@@ -3621,7 +3741,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="36" t="s">
         <v>107</v>
       </c>
       <c r="C72" s="23"/>
@@ -3649,7 +3769,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="36" t="s">
         <v>108</v>
       </c>
       <c r="C73" s="23"/>
@@ -3660,7 +3780,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
-      <c r="I73" s="26">
+      <c r="I73" s="25">
         <v>8.6125542260973506E-2</v>
       </c>
       <c r="J73" s="1">
@@ -3703,7 +3823,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="23">
@@ -3835,7 +3955,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C80" s="23"/>
@@ -3863,7 +3983,7 @@
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="23">
@@ -3943,7 +4063,7 @@
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C84" s="23">
@@ -3971,7 +4091,7 @@
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="38" t="s">
         <v>113</v>
       </c>
       <c r="C85" s="23"/>
@@ -4025,7 +4145,7 @@
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="36" t="s">
         <v>114</v>
       </c>
       <c r="C87" s="23"/>
@@ -4209,7 +4329,7 @@
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C94" s="23">
@@ -4341,7 +4461,7 @@
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="35" t="s">
         <v>122</v>
       </c>
       <c r="C99" s="23"/>
@@ -4369,7 +4489,7 @@
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="36" t="s">
         <v>123</v>
       </c>
       <c r="C100" s="23"/>
@@ -4501,7 +4621,7 @@
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C105" s="23">
@@ -4633,7 +4753,7 @@
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="23" t="s">
+      <c r="B110" s="36" t="s">
         <v>127</v>
       </c>
       <c r="C110" s="23"/>
@@ -4741,7 +4861,7 @@
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B114" s="23" t="s">
+      <c r="B114" s="38" t="s">
         <v>130</v>
       </c>
       <c r="C114" s="23"/>
@@ -4795,7 +4915,7 @@
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B116" s="23" t="s">
+      <c r="B116" s="36" t="s">
         <v>132</v>
       </c>
       <c r="C116" s="23"/>
@@ -4849,7 +4969,7 @@
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="27" t="s">
         <v>134</v>
       </c>
       <c r="C118" s="23"/>
@@ -4877,7 +4997,7 @@
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B119" s="23" t="s">
+      <c r="B119" s="38" t="s">
         <v>135</v>
       </c>
       <c r="C119" s="23"/>
@@ -4933,7 +5053,7 @@
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="23">
@@ -4961,7 +5081,7 @@
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="36" t="s">
         <v>137</v>
       </c>
       <c r="C122" s="23"/>
@@ -5093,7 +5213,7 @@
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B127" s="23" t="s">
+      <c r="B127" s="38" t="s">
         <v>142</v>
       </c>
       <c r="C127" s="23"/>
@@ -5121,7 +5241,7 @@
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B128" s="23" t="s">
+      <c r="B128" s="36" t="s">
         <v>143</v>
       </c>
       <c r="C128" s="23"/>
@@ -5149,7 +5269,7 @@
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B129" s="23" t="s">
+      <c r="B129" s="36" t="s">
         <v>144</v>
       </c>
       <c r="C129" s="23"/>
@@ -5179,7 +5299,7 @@
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C130" s="23"/>
@@ -5417,7 +5537,7 @@
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="38" t="s">
         <v>150</v>
       </c>
       <c r="C139" s="23"/>
